--- a/medicine/Sexualité et sexologie/José_Luis_Martín_Vigil/José_Luis_Martín_Vigil.xlsx
+++ b/medicine/Sexualité et sexologie/José_Luis_Martín_Vigil/José_Luis_Martín_Vigil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Luis_Mart%C3%ADn_Vigil</t>
+          <t>José_Luis_Martín_Vigil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">José Luis Martín Vigil (Oviedo, 28 octobre 1919 - Alcobendas, 20 février 2011) est un prêtre et écrivain espagnol. Il appartient à la Compagnie de Jésus de 1948 à 1958, date à laquelle il en est renvoyé. Il continue à exercer son sacerdoce jusqu'à la fin des années 1960.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Luis_Mart%C3%ADn_Vigil</t>
+          <t>José_Luis_Martín_Vigil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">José Luis Martín Vigil est un prêtre jésuite et célèbre écrivain espagnol dans les années 1960 et 1970[1]. Il est exclu des Jésuites, en 1958, alors qu'il est l'objet de plusieurs plaintes pour ses comportements déplacés avec des adolescents[2].
-Plusieurs victimes alléguées d'agressions sexuelles de sa part se sont fait connaitre. Celles-ci le contactent après avoir lu un de ses livres où se trouve, à la dernière page, son adresse, rue Velázquez à Madrid[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">José Luis Martín Vigil est un prêtre jésuite et célèbre écrivain espagnol dans les années 1960 et 1970. Il est exclu des Jésuites, en 1958, alors qu'il est l'objet de plusieurs plaintes pour ses comportements déplacés avec des adolescents.
+Plusieurs victimes alléguées d'agressions sexuelles de sa part se sont fait connaitre. Celles-ci le contactent après avoir lu un de ses livres où se trouve, à la dernière page, son adresse, rue Velázquez à Madrid.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Luis_Mart%C3%ADn_Vigil</t>
+          <t>José_Luis_Martín_Vigil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ouvrages de José Luis Martín Vigil sont publiés pendant la dictature du régime franquiste marquée par une idéologie conservatrice et nationale-catholique. Ils évoquent des thèmes recherchés par les adolescents « la drogue, la sexualité, la condition ouvrière, les bidonvilles… ». Mais pour le journaliste de Libération François-Xavier Gomez, cette apparente audace est le prétexte pour mettre en avant un ordre moral réactionnaire[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ouvrages de José Luis Martín Vigil sont publiés pendant la dictature du régime franquiste marquée par une idéologie conservatrice et nationale-catholique. Ils évoquent des thèmes recherchés par les adolescents « la drogue, la sexualité, la condition ouvrière, les bidonvilles… ». Mais pour le journaliste de Libération François-Xavier Gomez, cette apparente audace est le prétexte pour mettre en avant un ordre moral réactionnaire.
 </t>
         </is>
       </c>
